--- a/biology/Médecine/Odanacatib/Odanacatib.xlsx
+++ b/biology/Médecine/Odanacatib/Odanacatib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Odanacatib (DCI : MK-0822) est un traitement expérimental pour lutter contre l'ostéoporose et les métastases osseuses [1].
-C'est un inhibiteur réversible de la cathepsine K[2], enzyme impliquée dans la résorption osseuse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Odanacatib (DCI : MK-0822) est un traitement expérimental pour lutter contre l'ostéoporose et les métastases osseuses .
+C'est un inhibiteur réversible de la cathepsine K, enzyme impliquée dans la résorption osseuse.
 Cette molécule est en cours de mise au point par Merck &amp; Co. à Montréal.  
-Les essais cliniques de phase III pour ce composé ont été arrêtés prématurément après un examen qui a démontré qu'il était très efficace et avait un bon profil d'innocuité. Merck a déclaré qu'une demande d'approbation réglementaire serait présentée en 2015[3].
-Selon Cowen and Co, les prévisions de chiffre d'affaires sont estimées à un milliard de dollars par an à partir de 2020[4].
+Les essais cliniques de phase III pour ce composé ont été arrêtés prématurément après un examen qui a démontré qu'il était très efficace et avait un bon profil d'innocuité. Merck a déclaré qu'une demande d'approbation réglementaire serait présentée en 2015.
+Selon Cowen and Co, les prévisions de chiffre d'affaires sont estimées à un milliard de dollars par an à partir de 2020.
 </t>
         </is>
       </c>
